--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,18 +52,24 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
@@ -76,120 +82,120 @@
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -205,76 +211,76 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>every</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>year</t>
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7258064516129032</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.671875</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,16 +981,16 @@
         <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.7169811320754716</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6428571428571429</v>
+        <v>0.640625</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.5942028985507246</v>
+        <v>0.5710186513629842</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6310679611650486</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C10">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.5810616929698709</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L10">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5818181818181818</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.5477178423236515</v>
+        <v>0.5228215767634855</v>
       </c>
       <c r="L11">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M11">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.4639344262295082</v>
+        <v>0.4741591468416735</v>
       </c>
       <c r="L12">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="M12">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.3669724770642202</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L13">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4985507246376812</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.3493975903614458</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4814814814814815</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.3492063492063492</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.453125</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.3416666666666667</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,37 +1410,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4526315789473684</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>43</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>52</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.265625</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4457831325301205</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.2377622377622378</v>
+        <v>0.296875</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4330708661417323</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.232</v>
+        <v>0.264</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4259259259259259</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.2008032128514056</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4075829383886256</v>
+        <v>0.4312796208530806</v>
       </c>
       <c r="C21">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.1849255039439089</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L21">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>930</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.1559139784946237</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3968253968253968</v>
+        <v>0.40625</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,28 +1731,28 @@
         <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.1168831168831169</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1360</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.390625</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.08823529411764706</v>
+        <v>0.182296231375986</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>341</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3793103448275862</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.07520891364902507</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3650793650793651</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,31 +1878,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.07120743034055728</v>
+        <v>0.1077922077922078</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>300</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3564356435643564</v>
+        <v>0.3671875</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,31 +1928,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.05866666666666667</v>
+        <v>0.09192200557103064</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>706</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,28 +1981,28 @@
         <v>59</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.04838709677419355</v>
+        <v>0.05823293172690763</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O28">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3061224489795918</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,31 +2028,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.03857142857142857</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N29">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="O29">
-        <v>0.16</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>673</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.24</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>152</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2080,13 +2086,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2393162393162393</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2098,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>89</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2106,13 +2112,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2164948453608248</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>152</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2132,13 +2138,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2120253164556962</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C33">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2150,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2158,13 +2164,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1956521739130435</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2176,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2184,25 +2190,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1930379746835443</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C35">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>255</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2210,13 +2216,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1925287356321839</v>
+        <v>0.1884272997032641</v>
       </c>
       <c r="C36">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D36">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2228,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>281</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2236,25 +2242,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1916790490341753</v>
+        <v>0.1844380403458213</v>
       </c>
       <c r="C37">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>544</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2262,13 +2268,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1719745222929936</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2280,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2288,13 +2294,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1642857142857143</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2306,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2314,13 +2320,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1635514018691589</v>
+        <v>0.165</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2332,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2340,13 +2346,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1485714285714286</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2358,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>149</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2366,7 +2372,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1475409836065574</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C42">
         <v>27</v>
@@ -2384,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2392,25 +2398,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1280353200883002</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C43">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>395</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2418,13 +2424,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1151832460732984</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2436,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2444,25 +2450,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1138211382113821</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E45">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>218</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2496,25 +2502,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09315068493150686</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>331</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2522,25 +2528,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08482142857142858</v>
+        <v>0.1049107142857143</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2548,25 +2554,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.08085808580858085</v>
+        <v>0.09642857142857143</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>557</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2574,25 +2580,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07494145199063232</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C50">
         <v>32</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>395</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2600,25 +2606,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.07102272727272728</v>
+        <v>0.07933884297520662</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E51">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F51">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>327</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2626,25 +2632,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.0586734693877551</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>738</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2652,25 +2658,77 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.05521472392638037</v>
+        <v>0.06290115532734275</v>
       </c>
       <c r="C53">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E53">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="F53">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>616</v>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.05386416861826698</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>0.23</v>
+      </c>
+      <c r="F54">
+        <v>0.77</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.05343511450381679</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
